--- a/lid_dimensions.xlsx
+++ b/lid_dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C1A2AD-334F-483B-9754-45AABA51EF99}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{EB66D834-8608-4ECF-9707-3A42C7051218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52ECD523-CE80-436B-804C-CD6220E28685}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5D3FEB3C-2561-4B10-B57D-89B92279F071}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,7 +433,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>3.14*5*5</f>
+        <f>3.14*radius_lid^2</f>
         <v>78.5</v>
       </c>
       <c r="C5" t="s">
